--- a/Assets/작업일지.xlsx
+++ b/Assets/작업일지.xlsx
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018-02-14(수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2018-02-19(월)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +103,10 @@
   </si>
   <si>
     <t>NOTICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAP01, 캐릭터 추락-&gt;부활, CamFollow(메인 카메라), 아이템 제너레이터, 아이템 픽킹, 에너미 제너레이터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,27 +403,54 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -437,9 +464,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -455,64 +479,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -524,47 +521,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,1273 +907,1198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U70"/>
+  <dimension ref="B2:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="D11:O14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
-      <c r="Q3" s="43" t="s">
-        <v>20</v>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
       </c>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="45"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="3"/>
     </row>
     <row r="4" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="33"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="26"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="45"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="33"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="49"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="9"/>
     </row>
     <row r="6" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="36"/>
-      <c r="Q6" s="50"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
-      <c r="U6" s="17"/>
+      <c r="U6" s="12"/>
     </row>
     <row r="7" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="19" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="19" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="26"/>
-      <c r="Q7" s="50"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+      <c r="Q7" s="10"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="17"/>
+      <c r="U7" s="12"/>
     </row>
     <row r="8" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="26"/>
-      <c r="Q8" s="50"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+      <c r="Q8" s="10"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="17"/>
+      <c r="U8" s="12"/>
     </row>
     <row r="9" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="46"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="26"/>
-      <c r="Q9" s="50"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+      <c r="Q9" s="10"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
-      <c r="U9" s="17"/>
+      <c r="U9" s="12"/>
     </row>
     <row r="10" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="53"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="27"/>
-      <c r="Q10" s="50"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="53"/>
+      <c r="Q10" s="10"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="17"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="16"/>
-      <c r="Q11" s="50"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="24"/>
+      <c r="Q11" s="10"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="17"/>
+      <c r="U11" s="12"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="10"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="10"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="19"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="17"/>
-      <c r="Q12" s="50"/>
+      <c r="O12" s="12"/>
+      <c r="Q12" s="10"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="17"/>
+      <c r="U12" s="12"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="10"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="10"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
-      <c r="O13" s="17"/>
-      <c r="Q13" s="50"/>
+      <c r="O13" s="12"/>
+      <c r="Q13" s="10"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
-      <c r="U13" s="17"/>
+      <c r="U13" s="12"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="18"/>
-      <c r="Q14" s="50"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="25"/>
+      <c r="Q14" s="10"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="17"/>
+      <c r="U14" s="12"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="16"/>
-      <c r="Q15" s="50"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="24"/>
+      <c r="Q15" s="10"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
-      <c r="U15" s="17"/>
+      <c r="U15" s="12"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="10"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
-      <c r="O16" s="17"/>
-      <c r="Q16" s="50"/>
+      <c r="O16" s="12"/>
+      <c r="Q16" s="10"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="17"/>
+      <c r="U16" s="12"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="10"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="10"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="19"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="17"/>
-      <c r="Q17" s="50"/>
+      <c r="O17" s="12"/>
+      <c r="Q17" s="10"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="17"/>
+      <c r="U17" s="12"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="18"/>
-      <c r="Q18" s="50"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="25"/>
+      <c r="Q18" s="10"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="17"/>
+      <c r="U18" s="12"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="16"/>
-      <c r="Q19" s="50"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="24"/>
+      <c r="Q19" s="10"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="17"/>
+      <c r="U19" s="12"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="10"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="10"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
-      <c r="O20" s="17"/>
-      <c r="Q20" s="50"/>
+      <c r="O20" s="12"/>
+      <c r="Q20" s="10"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="17"/>
+      <c r="U20" s="12"/>
     </row>
     <row r="21" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="10"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="10"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
-      <c r="O21" s="17"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="42"/>
+      <c r="O21" s="12"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="15"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="18"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="25"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="16"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="24"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="10"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="19"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
-      <c r="O24" s="17"/>
+      <c r="O24" s="12"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="10"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="10"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="10"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
-      <c r="O25" s="17"/>
+      <c r="O25" s="12"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="18"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="25"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="16"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="24"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="10"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="19"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="10"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="19"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
-      <c r="O28" s="17"/>
+      <c r="O28" s="12"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="10"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="10"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="19"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="10"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="19"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
-      <c r="O29" s="17"/>
+      <c r="O29" s="12"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="18"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="25"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="16"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="24"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="10"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="10"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="19"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="10"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="19"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
-      <c r="O32" s="17"/>
+      <c r="O32" s="12"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="10"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="10"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="19"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="10"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="19"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
-      <c r="O33" s="17"/>
+      <c r="O33" s="12"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="18"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="25"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="16"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="24"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="10"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="10"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="19"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="10"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="19"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
-      <c r="O36" s="17"/>
+      <c r="O36" s="12"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="10"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="10"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="19"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="10"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="19"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
-      <c r="O37" s="17"/>
+      <c r="O37" s="12"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="18"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="25"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="16"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="24"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="10"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="10"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="19"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="10"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="19"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
-      <c r="O40" s="17"/>
+      <c r="O40" s="12"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="10"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="19"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="10"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="19"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="10"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="19"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
-      <c r="O41" s="17"/>
+      <c r="O41" s="12"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="18"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="25"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="16"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="24"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="10"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="10"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="19"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="10"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="19"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
-      <c r="O44" s="17"/>
+      <c r="O44" s="12"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="10"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="19"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="10"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="19"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="10"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="19"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
-      <c r="O45" s="17"/>
+      <c r="O45" s="12"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="18"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="25"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="16"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="24"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="10"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="19"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="10"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="19"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="10"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="19"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
-      <c r="O48" s="17"/>
+      <c r="O48" s="12"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="10"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="19"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="10"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="19"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="10"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="19"/>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
-      <c r="O49" s="17"/>
+      <c r="O49" s="12"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="18"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="25"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="16"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="24"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="10"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="19"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="10"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="19"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="10"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="19"/>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
-      <c r="O52" s="17"/>
+      <c r="O52" s="12"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="10"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="19"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="10"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="19"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="10"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="19"/>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
-      <c r="O53" s="17"/>
+      <c r="O53" s="12"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="18"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="25"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="16"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="24"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="10"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="19"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="10"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="19"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="10"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="19"/>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
-      <c r="O56" s="17"/>
+      <c r="O56" s="12"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="10"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="19"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="10"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="19"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="10"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="19"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
-      <c r="O57" s="17"/>
+      <c r="O57" s="12"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="18"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="25"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="16"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="24"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="3"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="10"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="19"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="10"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="19"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="10"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="19"/>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
-      <c r="O60" s="17"/>
+      <c r="O60" s="12"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="10"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="19"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="10"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="19"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="10"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="19"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
-      <c r="O61" s="17"/>
+      <c r="O61" s="12"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="18"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="25"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="16"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="24"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B64" s="3"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="10"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="19"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="10"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="19"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="10"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="19"/>
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
-      <c r="O64" s="17"/>
+      <c r="O64" s="12"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B65" s="3"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="10"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="19"/>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="10"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="19"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="10"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="19"/>
       <c r="M65" s="11"/>
       <c r="N65" s="11"/>
-      <c r="O65" s="17"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B66" s="5"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="13"/>
+      <c r="O65" s="12"/>
+    </row>
+    <row r="66" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="36"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="38"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="13"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="38"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="13"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="38"/>
       <c r="M66" s="14"/>
       <c r="N66" s="14"/>
-      <c r="O66" s="18"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="16"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B68" s="3"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="17"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B69" s="3"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="17"/>
-    </row>
-    <row r="70" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="37"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="40"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="40"/>
-      <c r="N70" s="40"/>
-      <c r="O70" s="42"/>
+      <c r="O66" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="Q3:U5"/>
-    <mergeCell ref="Q6:U21"/>
-    <mergeCell ref="H63:K66"/>
-    <mergeCell ref="L63:O66"/>
-    <mergeCell ref="B7:C10"/>
-    <mergeCell ref="B63:C66"/>
-    <mergeCell ref="B55:C58"/>
-    <mergeCell ref="D43:G46"/>
-    <mergeCell ref="H43:K46"/>
-    <mergeCell ref="L43:O46"/>
-    <mergeCell ref="D47:G50"/>
-    <mergeCell ref="H47:K50"/>
-    <mergeCell ref="L47:O50"/>
-    <mergeCell ref="D39:G42"/>
-    <mergeCell ref="H39:K42"/>
-    <mergeCell ref="L39:O42"/>
-    <mergeCell ref="L51:O54"/>
-    <mergeCell ref="D55:G58"/>
-    <mergeCell ref="H55:K58"/>
-    <mergeCell ref="L55:O58"/>
-    <mergeCell ref="D51:G54"/>
-    <mergeCell ref="H51:K54"/>
-    <mergeCell ref="B67:C70"/>
-    <mergeCell ref="D59:G62"/>
-    <mergeCell ref="H59:K62"/>
-    <mergeCell ref="L59:O62"/>
-    <mergeCell ref="D63:G66"/>
-    <mergeCell ref="B59:C62"/>
-    <mergeCell ref="D67:G70"/>
-    <mergeCell ref="H67:K70"/>
-    <mergeCell ref="L67:O70"/>
+  <mergeCells count="63">
+    <mergeCell ref="B43:C46"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="B31:C34"/>
+    <mergeCell ref="B35:C38"/>
+    <mergeCell ref="B39:C42"/>
+    <mergeCell ref="D11:G14"/>
+    <mergeCell ref="H11:K14"/>
+    <mergeCell ref="L11:O14"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D7:G10"/>
+    <mergeCell ref="H7:K10"/>
+    <mergeCell ref="L7:O10"/>
+    <mergeCell ref="H15:K18"/>
+    <mergeCell ref="L15:O18"/>
+    <mergeCell ref="D19:G22"/>
+    <mergeCell ref="H19:K22"/>
+    <mergeCell ref="L19:O22"/>
     <mergeCell ref="B47:C50"/>
     <mergeCell ref="B51:C54"/>
     <mergeCell ref="B3:O6"/>
@@ -2163,28 +2115,36 @@
     <mergeCell ref="H27:K30"/>
     <mergeCell ref="L27:O30"/>
     <mergeCell ref="D15:G18"/>
-    <mergeCell ref="H15:K18"/>
-    <mergeCell ref="L15:O18"/>
-    <mergeCell ref="D19:G22"/>
-    <mergeCell ref="H19:K22"/>
-    <mergeCell ref="L19:O22"/>
-    <mergeCell ref="D11:G14"/>
-    <mergeCell ref="H11:K14"/>
-    <mergeCell ref="L11:O14"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D7:G10"/>
-    <mergeCell ref="H7:K10"/>
-    <mergeCell ref="L7:O10"/>
-    <mergeCell ref="B43:C46"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="B31:C34"/>
-    <mergeCell ref="B35:C38"/>
-    <mergeCell ref="B39:C42"/>
+    <mergeCell ref="B63:C66"/>
+    <mergeCell ref="D59:G62"/>
+    <mergeCell ref="D63:G66"/>
+    <mergeCell ref="H63:K66"/>
+    <mergeCell ref="L63:O66"/>
+    <mergeCell ref="L51:O54"/>
+    <mergeCell ref="D55:G58"/>
+    <mergeCell ref="H55:K58"/>
+    <mergeCell ref="L55:O58"/>
+    <mergeCell ref="D51:G54"/>
+    <mergeCell ref="H51:K54"/>
+    <mergeCell ref="Q3:U5"/>
+    <mergeCell ref="Q6:U21"/>
+    <mergeCell ref="H59:K62"/>
+    <mergeCell ref="L59:O62"/>
+    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="B59:C62"/>
+    <mergeCell ref="B55:C58"/>
+    <mergeCell ref="D43:G46"/>
+    <mergeCell ref="H43:K46"/>
+    <mergeCell ref="L43:O46"/>
+    <mergeCell ref="D47:G50"/>
+    <mergeCell ref="H47:K50"/>
+    <mergeCell ref="L47:O50"/>
+    <mergeCell ref="D39:G42"/>
+    <mergeCell ref="H39:K42"/>
+    <mergeCell ref="L39:O42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/작업일지.xlsx
+++ b/Assets/작업일지.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>작업 일지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,10 @@
     <t>MAP01, 캐릭터 추락-&gt;부활, CamFollow(메인 카메라), 아이템 제너레이터, 아이템 픽킹, 에너미 제너레이터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>버추얼 패드 버튼 활성화, 아이템 던지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -407,6 +411,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,12 +574,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -437,161 +588,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,196 +921,196 @@
   <sheetData>
     <row r="2" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="Q3" s="1" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
+      <c r="Q3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="3"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="54"/>
     </row>
     <row r="4" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="6"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="42"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="35"/>
     </row>
     <row r="5" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="9"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="42"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="58"/>
     </row>
     <row r="6" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="12"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="45"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="26"/>
     </row>
     <row r="7" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="49" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="49" t="s">
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="49" t="s">
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="12"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="35"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="26"/>
     </row>
     <row r="8" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="12"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="35"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="26"/>
     </row>
     <row r="9" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="12"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="35"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="26"/>
     </row>
     <row r="10" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="53"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="12"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="36"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="26"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="54" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -1114,82 +1118,84 @@
       <c r="L11" s="16"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="24"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="12"/>
+      <c r="O11" s="25"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="26"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="19"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="12"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="26"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="26"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="19"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="12"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="12"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="26"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="26"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="25"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="12"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="27"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="26"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="18"/>
@@ -1200,81 +1206,81 @@
       <c r="L15" s="16"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="24"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="12"/>
+      <c r="O15" s="25"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="26"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="21"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="12"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="26"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="26"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="19"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="12"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="12"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="26"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="26"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="25"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="12"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="27"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="26"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -1286,76 +1292,76 @@
       <c r="L19" s="16"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="24"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="12"/>
+      <c r="O19" s="25"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="26"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="12"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="12"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="26"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="26"/>
     </row>
     <row r="21" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="21"/>
       <c r="L21" s="19"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="12"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="15"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="26"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="51"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="25"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="27"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -1367,61 +1373,61 @@
       <c r="L23" s="16"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="24"/>
+      <c r="O23" s="25"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="12"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="26"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
       <c r="L25" s="19"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="12"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="26"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="25"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="27"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="31"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -1433,61 +1439,61 @@
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="24"/>
+      <c r="O27" s="25"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="21"/>
       <c r="L28" s="19"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="12"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="26"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="21"/>
       <c r="L29" s="19"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="12"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="26"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="25"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="27"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -1499,61 +1505,61 @@
       <c r="L31" s="16"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
-      <c r="O31" s="24"/>
+      <c r="O31" s="25"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="21"/>
       <c r="L32" s="19"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="12"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="26"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="21"/>
       <c r="L33" s="19"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="12"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="26"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="25"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="27"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="31"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -1565,61 +1571,61 @@
       <c r="L35" s="16"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="24"/>
+      <c r="O35" s="25"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="21"/>
       <c r="L36" s="19"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="12"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="26"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="32"/>
-      <c r="C37" s="33"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="21"/>
       <c r="L37" s="19"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="12"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="26"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="25"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="27"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="31"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="16"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -1631,61 +1637,61 @@
       <c r="L39" s="16"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
-      <c r="O39" s="24"/>
+      <c r="O39" s="25"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="21"/>
       <c r="L40" s="19"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="12"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="26"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="21"/>
       <c r="L41" s="19"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="12"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="26"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="34"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="25"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="27"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="31"/>
+      <c r="C43" s="2"/>
       <c r="D43" s="16"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
@@ -1697,61 +1703,61 @@
       <c r="L43" s="16"/>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
-      <c r="O43" s="24"/>
+      <c r="O43" s="25"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="19"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="21"/>
       <c r="L44" s="19"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="12"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="26"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="32"/>
-      <c r="C45" s="33"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="19"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="21"/>
       <c r="L45" s="19"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="12"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="26"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="34"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="25"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="27"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="31"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="16"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
@@ -1763,61 +1769,61 @@
       <c r="L47" s="16"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
-      <c r="O47" s="24"/>
+      <c r="O47" s="25"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="32"/>
-      <c r="C48" s="33"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="19"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="21"/>
       <c r="L48" s="19"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="12"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="26"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="32"/>
-      <c r="C49" s="33"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="19"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="21"/>
       <c r="L49" s="19"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="12"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="26"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="34"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="25"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="27"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="31"/>
+      <c r="C51" s="2"/>
       <c r="D51" s="16"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -1829,61 +1835,61 @@
       <c r="L51" s="16"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
-      <c r="O51" s="24"/>
+      <c r="O51" s="25"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="32"/>
-      <c r="C52" s="33"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="19"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="21"/>
       <c r="L52" s="19"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="12"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="26"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="32"/>
-      <c r="C53" s="33"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="19"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="21"/>
       <c r="L53" s="19"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="12"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="26"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B54" s="34"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="25"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="27"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="31"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="16"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -1895,61 +1901,61 @@
       <c r="L55" s="16"/>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
-      <c r="O55" s="24"/>
+      <c r="O55" s="25"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="32"/>
-      <c r="C56" s="33"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="19"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="21"/>
       <c r="H56" s="19"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="21"/>
       <c r="L56" s="19"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="12"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="26"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B57" s="32"/>
-      <c r="C57" s="33"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
       <c r="D57" s="19"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="21"/>
       <c r="H57" s="19"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="21"/>
       <c r="L57" s="19"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="12"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="26"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="34"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="25"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="27"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="31"/>
+      <c r="C59" s="2"/>
       <c r="D59" s="16"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
@@ -1961,61 +1967,61 @@
       <c r="L59" s="16"/>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
-      <c r="O59" s="24"/>
+      <c r="O59" s="25"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="32"/>
-      <c r="C60" s="33"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
       <c r="H60" s="19"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="21"/>
       <c r="L60" s="19"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="12"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="26"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B61" s="32"/>
-      <c r="C61" s="33"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="19"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21"/>
       <c r="H61" s="19"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="21"/>
       <c r="L61" s="19"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="12"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="26"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B62" s="34"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="25"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="27"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="31"/>
+      <c r="C63" s="2"/>
       <c r="D63" s="16"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
@@ -2027,78 +2033,85 @@
       <c r="L63" s="16"/>
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
-      <c r="O63" s="24"/>
+      <c r="O63" s="25"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B64" s="32"/>
-      <c r="C64" s="33"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="21"/>
       <c r="H64" s="19"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="21"/>
       <c r="L64" s="19"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="12"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="26"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B65" s="32"/>
-      <c r="C65" s="33"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
       <c r="D65" s="19"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="21"/>
       <c r="H65" s="19"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="21"/>
       <c r="L65" s="19"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="12"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="26"/>
     </row>
     <row r="66" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="36"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="15"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B43:C46"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="B31:C34"/>
-    <mergeCell ref="B35:C38"/>
-    <mergeCell ref="B39:C42"/>
-    <mergeCell ref="D11:G14"/>
-    <mergeCell ref="H11:K14"/>
-    <mergeCell ref="L11:O14"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D7:G10"/>
-    <mergeCell ref="H7:K10"/>
-    <mergeCell ref="L7:O10"/>
-    <mergeCell ref="H15:K18"/>
-    <mergeCell ref="L15:O18"/>
-    <mergeCell ref="D19:G22"/>
-    <mergeCell ref="H19:K22"/>
-    <mergeCell ref="L19:O22"/>
+    <mergeCell ref="Q3:U5"/>
+    <mergeCell ref="Q6:U21"/>
+    <mergeCell ref="H59:K62"/>
+    <mergeCell ref="L59:O62"/>
+    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="B59:C62"/>
+    <mergeCell ref="B55:C58"/>
+    <mergeCell ref="D43:G46"/>
+    <mergeCell ref="H43:K46"/>
+    <mergeCell ref="L43:O46"/>
+    <mergeCell ref="D47:G50"/>
+    <mergeCell ref="H47:K50"/>
+    <mergeCell ref="L47:O50"/>
+    <mergeCell ref="D39:G42"/>
+    <mergeCell ref="H39:K42"/>
+    <mergeCell ref="L39:O42"/>
+    <mergeCell ref="L51:O54"/>
+    <mergeCell ref="D55:G58"/>
+    <mergeCell ref="H55:K58"/>
+    <mergeCell ref="L55:O58"/>
+    <mergeCell ref="D51:G54"/>
+    <mergeCell ref="H51:K54"/>
+    <mergeCell ref="B63:C66"/>
+    <mergeCell ref="D59:G62"/>
+    <mergeCell ref="D63:G66"/>
+    <mergeCell ref="H63:K66"/>
+    <mergeCell ref="L63:O66"/>
     <mergeCell ref="B47:C50"/>
     <mergeCell ref="B51:C54"/>
     <mergeCell ref="B3:O6"/>
@@ -2115,33 +2128,26 @@
     <mergeCell ref="H27:K30"/>
     <mergeCell ref="L27:O30"/>
     <mergeCell ref="D15:G18"/>
-    <mergeCell ref="B63:C66"/>
-    <mergeCell ref="D59:G62"/>
-    <mergeCell ref="D63:G66"/>
-    <mergeCell ref="H63:K66"/>
-    <mergeCell ref="L63:O66"/>
-    <mergeCell ref="L51:O54"/>
-    <mergeCell ref="D55:G58"/>
-    <mergeCell ref="H55:K58"/>
-    <mergeCell ref="L55:O58"/>
-    <mergeCell ref="D51:G54"/>
-    <mergeCell ref="H51:K54"/>
-    <mergeCell ref="Q3:U5"/>
-    <mergeCell ref="Q6:U21"/>
-    <mergeCell ref="H59:K62"/>
-    <mergeCell ref="L59:O62"/>
-    <mergeCell ref="B7:C10"/>
-    <mergeCell ref="B59:C62"/>
-    <mergeCell ref="B55:C58"/>
-    <mergeCell ref="D43:G46"/>
-    <mergeCell ref="H43:K46"/>
-    <mergeCell ref="L43:O46"/>
-    <mergeCell ref="D47:G50"/>
-    <mergeCell ref="H47:K50"/>
-    <mergeCell ref="L47:O50"/>
-    <mergeCell ref="D39:G42"/>
-    <mergeCell ref="H39:K42"/>
-    <mergeCell ref="L39:O42"/>
+    <mergeCell ref="H15:K18"/>
+    <mergeCell ref="L15:O18"/>
+    <mergeCell ref="D19:G22"/>
+    <mergeCell ref="H19:K22"/>
+    <mergeCell ref="L19:O22"/>
+    <mergeCell ref="D11:G14"/>
+    <mergeCell ref="H11:K14"/>
+    <mergeCell ref="L11:O14"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D7:G10"/>
+    <mergeCell ref="H7:K10"/>
+    <mergeCell ref="L7:O10"/>
+    <mergeCell ref="B43:C46"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="B31:C34"/>
+    <mergeCell ref="B35:C38"/>
+    <mergeCell ref="B39:C42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/작업일지.xlsx
+++ b/Assets/작업일지.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>작업 일지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t>버추얼 패드 버튼 활성화, 아이템 던지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 던진거 다시 잡기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,6 +415,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,6 +518,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -456,51 +586,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,91 +598,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -914,203 +918,203 @@
   <dimension ref="B2:U66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:G18"/>
+      <selection activeCell="D19" sqref="D19:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
-      <c r="Q3" s="52" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="Q3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="54"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="3"/>
     </row>
     <row r="4" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="42"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="35"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="45"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="42"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="58"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="9"/>
     </row>
     <row r="6" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="26"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="12"/>
     </row>
     <row r="7" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="28" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="28" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="35"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="26"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="12"/>
     </row>
     <row r="8" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="55"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="35"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="26"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="12"/>
     </row>
     <row r="9" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="55"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="35"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="26"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="12"/>
     </row>
     <row r="10" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="62"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="36"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="62"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -1118,81 +1122,81 @@
       <c r="L11" s="16"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="25"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="26"/>
+      <c r="O11" s="24"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="12"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="26"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="26"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="12"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="26"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="26"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="12"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="12"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="27"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="26"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="25"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="12"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1206,82 +1210,84 @@
       <c r="L15" s="16"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="25"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="26"/>
+      <c r="O15" s="24"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="12"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="20"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="26"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="26"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="12"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="20"/>
       <c r="L17" s="19"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="26"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="26"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="12"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="12"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="27"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="26"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="25"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="12"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="18"/>
@@ -1292,76 +1298,76 @@
       <c r="L19" s="16"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="25"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="26"/>
+      <c r="O19" s="24"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="12"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="26"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="26"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="12"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="12"/>
     </row>
     <row r="21" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="20"/>
       <c r="L21" s="19"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="26"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="51"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="12"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="15"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="27"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="25"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -1373,61 +1379,61 @@
       <c r="L23" s="16"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="25"/>
+      <c r="O23" s="24"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="26"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="12"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="20"/>
       <c r="L25" s="19"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="26"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="12"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="27"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="25"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -1439,61 +1445,61 @@
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="25"/>
+      <c r="O27" s="24"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="21"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="19"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="26"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="12"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="21"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="20"/>
       <c r="L29" s="19"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="26"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="12"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="27"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="25"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -1505,61 +1511,61 @@
       <c r="L31" s="16"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
-      <c r="O31" s="25"/>
+      <c r="O31" s="24"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="20"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="20"/>
       <c r="L32" s="19"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="26"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="12"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="20"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="20"/>
       <c r="L33" s="19"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="26"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="12"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="27"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="25"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -1571,61 +1577,61 @@
       <c r="L35" s="16"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="25"/>
+      <c r="O35" s="24"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="20"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="21"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="20"/>
       <c r="L36" s="19"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="26"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="12"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="20"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="21"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="20"/>
       <c r="L37" s="19"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="26"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="12"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="27"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="25"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="16"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -1637,61 +1643,61 @@
       <c r="L39" s="16"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
-      <c r="O39" s="25"/>
+      <c r="O39" s="24"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="20"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="21"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="20"/>
       <c r="L40" s="19"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="26"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="12"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="20"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="21"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="20"/>
       <c r="L41" s="19"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="26"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="12"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="27"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="25"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="16"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
@@ -1703,61 +1709,61 @@
       <c r="L43" s="16"/>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
-      <c r="O43" s="25"/>
+      <c r="O43" s="24"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="21"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="20"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="21"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="20"/>
       <c r="L44" s="19"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="26"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="12"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="20"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="21"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="20"/>
       <c r="L45" s="19"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="26"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="12"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="27"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="25"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="16"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
@@ -1769,61 +1775,61 @@
       <c r="L47" s="16"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
-      <c r="O47" s="25"/>
+      <c r="O47" s="24"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="33"/>
       <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="20"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="21"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="20"/>
       <c r="L48" s="19"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="26"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="12"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="20"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="21"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="20"/>
       <c r="L49" s="19"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="26"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="12"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="27"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="25"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="31"/>
       <c r="D51" s="16"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -1835,61 +1841,61 @@
       <c r="L51" s="16"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
-      <c r="O51" s="25"/>
+      <c r="O51" s="24"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="21"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="20"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="21"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="20"/>
       <c r="L52" s="19"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="26"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="12"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
       <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="20"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="21"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="20"/>
       <c r="L53" s="19"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="26"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="12"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="27"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="25"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="16"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -1901,61 +1907,61 @@
       <c r="L55" s="16"/>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
-      <c r="O55" s="25"/>
+      <c r="O55" s="24"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="33"/>
       <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="21"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="20"/>
       <c r="H56" s="19"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="21"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="20"/>
       <c r="L56" s="19"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="26"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="12"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="33"/>
       <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="21"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="20"/>
       <c r="H57" s="19"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="21"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="20"/>
       <c r="L57" s="19"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="26"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="12"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="27"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="25"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="16"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
@@ -1967,61 +1973,61 @@
       <c r="L59" s="16"/>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
-      <c r="O59" s="25"/>
+      <c r="O59" s="24"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="3"/>
-      <c r="C60" s="4"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="33"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="21"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="20"/>
       <c r="H60" s="19"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="21"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="20"/>
       <c r="L60" s="19"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="26"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="12"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="19"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="21"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="20"/>
       <c r="H61" s="19"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="21"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="20"/>
       <c r="L61" s="19"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="26"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="12"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="27"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="25"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="16"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
@@ -2033,58 +2039,105 @@
       <c r="L63" s="16"/>
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
-      <c r="O63" s="25"/>
+      <c r="O63" s="24"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B64" s="3"/>
-      <c r="C64" s="4"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="33"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="21"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="20"/>
       <c r="H64" s="19"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="21"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="20"/>
       <c r="L64" s="19"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="26"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="12"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B65" s="3"/>
-      <c r="C65" s="4"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="33"/>
       <c r="D65" s="19"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="21"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="20"/>
       <c r="H65" s="19"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="21"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="20"/>
       <c r="L65" s="19"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="26"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="12"/>
     </row>
     <row r="66" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="46"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="50"/>
-      <c r="L66" s="48"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="51"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="B43:C46"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="B31:C34"/>
+    <mergeCell ref="B35:C38"/>
+    <mergeCell ref="B39:C42"/>
+    <mergeCell ref="D11:G14"/>
+    <mergeCell ref="H11:K14"/>
+    <mergeCell ref="L11:O14"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D7:G10"/>
+    <mergeCell ref="H7:K10"/>
+    <mergeCell ref="L7:O10"/>
+    <mergeCell ref="H15:K18"/>
+    <mergeCell ref="L15:O18"/>
+    <mergeCell ref="D19:G22"/>
+    <mergeCell ref="H19:K22"/>
+    <mergeCell ref="L19:O22"/>
+    <mergeCell ref="B47:C50"/>
+    <mergeCell ref="B51:C54"/>
+    <mergeCell ref="B3:O6"/>
+    <mergeCell ref="D31:G34"/>
+    <mergeCell ref="H31:K34"/>
+    <mergeCell ref="L31:O34"/>
+    <mergeCell ref="D35:G38"/>
+    <mergeCell ref="H35:K38"/>
+    <mergeCell ref="L35:O38"/>
+    <mergeCell ref="D23:G26"/>
+    <mergeCell ref="H23:K26"/>
+    <mergeCell ref="L23:O26"/>
+    <mergeCell ref="D27:G30"/>
+    <mergeCell ref="H27:K30"/>
+    <mergeCell ref="L27:O30"/>
+    <mergeCell ref="D15:G18"/>
+    <mergeCell ref="B63:C66"/>
+    <mergeCell ref="D59:G62"/>
+    <mergeCell ref="D63:G66"/>
+    <mergeCell ref="H63:K66"/>
+    <mergeCell ref="L63:O66"/>
+    <mergeCell ref="L51:O54"/>
+    <mergeCell ref="D55:G58"/>
+    <mergeCell ref="H55:K58"/>
+    <mergeCell ref="L55:O58"/>
+    <mergeCell ref="D51:G54"/>
+    <mergeCell ref="H51:K54"/>
     <mergeCell ref="Q3:U5"/>
     <mergeCell ref="Q6:U21"/>
     <mergeCell ref="H59:K62"/>
@@ -2101,53 +2154,6 @@
     <mergeCell ref="D39:G42"/>
     <mergeCell ref="H39:K42"/>
     <mergeCell ref="L39:O42"/>
-    <mergeCell ref="L51:O54"/>
-    <mergeCell ref="D55:G58"/>
-    <mergeCell ref="H55:K58"/>
-    <mergeCell ref="L55:O58"/>
-    <mergeCell ref="D51:G54"/>
-    <mergeCell ref="H51:K54"/>
-    <mergeCell ref="B63:C66"/>
-    <mergeCell ref="D59:G62"/>
-    <mergeCell ref="D63:G66"/>
-    <mergeCell ref="H63:K66"/>
-    <mergeCell ref="L63:O66"/>
-    <mergeCell ref="B47:C50"/>
-    <mergeCell ref="B51:C54"/>
-    <mergeCell ref="B3:O6"/>
-    <mergeCell ref="D31:G34"/>
-    <mergeCell ref="H31:K34"/>
-    <mergeCell ref="L31:O34"/>
-    <mergeCell ref="D35:G38"/>
-    <mergeCell ref="H35:K38"/>
-    <mergeCell ref="L35:O38"/>
-    <mergeCell ref="D23:G26"/>
-    <mergeCell ref="H23:K26"/>
-    <mergeCell ref="L23:O26"/>
-    <mergeCell ref="D27:G30"/>
-    <mergeCell ref="H27:K30"/>
-    <mergeCell ref="L27:O30"/>
-    <mergeCell ref="D15:G18"/>
-    <mergeCell ref="H15:K18"/>
-    <mergeCell ref="L15:O18"/>
-    <mergeCell ref="D19:G22"/>
-    <mergeCell ref="H19:K22"/>
-    <mergeCell ref="L19:O22"/>
-    <mergeCell ref="D11:G14"/>
-    <mergeCell ref="H11:K14"/>
-    <mergeCell ref="L11:O14"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D7:G10"/>
-    <mergeCell ref="H7:K10"/>
-    <mergeCell ref="L7:O10"/>
-    <mergeCell ref="B43:C46"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="B31:C34"/>
-    <mergeCell ref="B35:C38"/>
-    <mergeCell ref="B39:C42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/작업일지.xlsx
+++ b/Assets/작업일지.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KITRI\Documents\GITHUB_PROJECT\KitriUnityProject\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KITRI\Desktop\Git\KitriUnityProject\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>작업 일지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>아이템 던진거 다시 잡기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 피격 판정,
+AI 설계 시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,6 +424,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,12 +587,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -445,160 +601,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -918,203 +927,203 @@
   <dimension ref="B2:U66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:G22"/>
+      <selection activeCell="L19" sqref="L19:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="Q3" s="1" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
+      <c r="Q3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="3"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="54"/>
     </row>
     <row r="4" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="6"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="42"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="35"/>
     </row>
     <row r="5" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="9"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="42"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="58"/>
     </row>
     <row r="6" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="12"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="45"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="26"/>
     </row>
     <row r="7" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="58" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="58" t="s">
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="58" t="s">
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="12"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="35"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="26"/>
     </row>
     <row r="8" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="12"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="35"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="26"/>
     </row>
     <row r="9" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="12"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="35"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="26"/>
     </row>
     <row r="10" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="62"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="12"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="36"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="26"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="49" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -1122,81 +1131,81 @@
       <c r="L11" s="16"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="24"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="12"/>
+      <c r="O11" s="25"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="26"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="19"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="12"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="26"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="26"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="19"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="12"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="12"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="26"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="26"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="25"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="12"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="27"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="26"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1207,84 +1216,86 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="16"/>
+      <c r="L15" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="24"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="12"/>
+      <c r="O15" s="25"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="26"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="21"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="12"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="26"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="26"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="19"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="12"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="12"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="26"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="26"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="25"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="12"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="27"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="26"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="16" t="s">
         <v>22</v>
       </c>
@@ -1295,79 +1306,81 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="16"/>
+      <c r="L19" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="24"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="12"/>
+      <c r="O19" s="25"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="26"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="12"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="12"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="26"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="26"/>
     </row>
     <row r="21" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="21"/>
       <c r="L21" s="19"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="12"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="15"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="26"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="51"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="25"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="27"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -1379,61 +1392,61 @@
       <c r="L23" s="16"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="24"/>
+      <c r="O23" s="25"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="12"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="26"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
       <c r="L25" s="19"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="12"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="26"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="25"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="27"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="31"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -1445,61 +1458,61 @@
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="24"/>
+      <c r="O27" s="25"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="21"/>
       <c r="L28" s="19"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="12"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="26"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="21"/>
       <c r="L29" s="19"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="12"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="26"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="25"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="27"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -1511,61 +1524,61 @@
       <c r="L31" s="16"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
-      <c r="O31" s="24"/>
+      <c r="O31" s="25"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="21"/>
       <c r="L32" s="19"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="12"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="26"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="21"/>
       <c r="L33" s="19"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="12"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="26"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="25"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="27"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="31"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -1577,61 +1590,61 @@
       <c r="L35" s="16"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="24"/>
+      <c r="O35" s="25"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="21"/>
       <c r="L36" s="19"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="12"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="26"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="32"/>
-      <c r="C37" s="33"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="21"/>
       <c r="L37" s="19"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="12"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="26"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="25"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="27"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="31"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="16"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -1643,61 +1656,61 @@
       <c r="L39" s="16"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
-      <c r="O39" s="24"/>
+      <c r="O39" s="25"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="21"/>
       <c r="L40" s="19"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="12"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="26"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="21"/>
       <c r="L41" s="19"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="12"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="26"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="34"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="25"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="27"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="31"/>
+      <c r="C43" s="2"/>
       <c r="D43" s="16"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
@@ -1709,61 +1722,61 @@
       <c r="L43" s="16"/>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
-      <c r="O43" s="24"/>
+      <c r="O43" s="25"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="19"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="21"/>
       <c r="L44" s="19"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="12"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="26"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="32"/>
-      <c r="C45" s="33"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="19"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="21"/>
       <c r="L45" s="19"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="12"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="26"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="34"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="25"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="27"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="31"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="16"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
@@ -1775,61 +1788,61 @@
       <c r="L47" s="16"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
-      <c r="O47" s="24"/>
+      <c r="O47" s="25"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="32"/>
-      <c r="C48" s="33"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="19"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="21"/>
       <c r="L48" s="19"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="12"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="26"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="32"/>
-      <c r="C49" s="33"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="19"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="21"/>
       <c r="L49" s="19"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="12"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="26"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="34"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="25"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="27"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="31"/>
+      <c r="C51" s="2"/>
       <c r="D51" s="16"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -1841,61 +1854,61 @@
       <c r="L51" s="16"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
-      <c r="O51" s="24"/>
+      <c r="O51" s="25"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="32"/>
-      <c r="C52" s="33"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="19"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="21"/>
       <c r="L52" s="19"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="12"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="26"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="32"/>
-      <c r="C53" s="33"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="19"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="21"/>
       <c r="L53" s="19"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="12"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="26"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B54" s="34"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="25"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="27"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="31"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="16"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -1907,61 +1920,61 @@
       <c r="L55" s="16"/>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
-      <c r="O55" s="24"/>
+      <c r="O55" s="25"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="32"/>
-      <c r="C56" s="33"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="19"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="21"/>
       <c r="H56" s="19"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="21"/>
       <c r="L56" s="19"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="12"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="26"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B57" s="32"/>
-      <c r="C57" s="33"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
       <c r="D57" s="19"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="21"/>
       <c r="H57" s="19"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="21"/>
       <c r="L57" s="19"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="12"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="26"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="34"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="25"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="27"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="31"/>
+      <c r="C59" s="2"/>
       <c r="D59" s="16"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
@@ -1973,61 +1986,61 @@
       <c r="L59" s="16"/>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
-      <c r="O59" s="24"/>
+      <c r="O59" s="25"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="32"/>
-      <c r="C60" s="33"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
       <c r="H60" s="19"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="21"/>
       <c r="L60" s="19"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="12"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="26"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B61" s="32"/>
-      <c r="C61" s="33"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="19"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21"/>
       <c r="H61" s="19"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="21"/>
       <c r="L61" s="19"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="12"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="26"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B62" s="34"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="25"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="27"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="31"/>
+      <c r="C63" s="2"/>
       <c r="D63" s="16"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
@@ -2039,78 +2052,85 @@
       <c r="L63" s="16"/>
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
-      <c r="O63" s="24"/>
+      <c r="O63" s="25"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B64" s="32"/>
-      <c r="C64" s="33"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="21"/>
       <c r="H64" s="19"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="21"/>
       <c r="L64" s="19"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="12"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="26"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B65" s="32"/>
-      <c r="C65" s="33"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
       <c r="D65" s="19"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="21"/>
       <c r="H65" s="19"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="21"/>
       <c r="L65" s="19"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="12"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="26"/>
     </row>
     <row r="66" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="36"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="15"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B43:C46"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="B31:C34"/>
-    <mergeCell ref="B35:C38"/>
-    <mergeCell ref="B39:C42"/>
-    <mergeCell ref="D11:G14"/>
-    <mergeCell ref="H11:K14"/>
-    <mergeCell ref="L11:O14"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D7:G10"/>
-    <mergeCell ref="H7:K10"/>
-    <mergeCell ref="L7:O10"/>
-    <mergeCell ref="H15:K18"/>
-    <mergeCell ref="L15:O18"/>
-    <mergeCell ref="D19:G22"/>
-    <mergeCell ref="H19:K22"/>
-    <mergeCell ref="L19:O22"/>
+    <mergeCell ref="Q3:U5"/>
+    <mergeCell ref="Q6:U21"/>
+    <mergeCell ref="H59:K62"/>
+    <mergeCell ref="L59:O62"/>
+    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="B59:C62"/>
+    <mergeCell ref="B55:C58"/>
+    <mergeCell ref="D43:G46"/>
+    <mergeCell ref="H43:K46"/>
+    <mergeCell ref="L43:O46"/>
+    <mergeCell ref="D47:G50"/>
+    <mergeCell ref="H47:K50"/>
+    <mergeCell ref="L47:O50"/>
+    <mergeCell ref="D39:G42"/>
+    <mergeCell ref="H39:K42"/>
+    <mergeCell ref="L39:O42"/>
+    <mergeCell ref="L51:O54"/>
+    <mergeCell ref="D55:G58"/>
+    <mergeCell ref="H55:K58"/>
+    <mergeCell ref="L55:O58"/>
+    <mergeCell ref="D51:G54"/>
+    <mergeCell ref="H51:K54"/>
+    <mergeCell ref="B63:C66"/>
+    <mergeCell ref="D59:G62"/>
+    <mergeCell ref="D63:G66"/>
+    <mergeCell ref="H63:K66"/>
+    <mergeCell ref="L63:O66"/>
     <mergeCell ref="B47:C50"/>
     <mergeCell ref="B51:C54"/>
     <mergeCell ref="B3:O6"/>
@@ -2127,33 +2147,26 @@
     <mergeCell ref="H27:K30"/>
     <mergeCell ref="L27:O30"/>
     <mergeCell ref="D15:G18"/>
-    <mergeCell ref="B63:C66"/>
-    <mergeCell ref="D59:G62"/>
-    <mergeCell ref="D63:G66"/>
-    <mergeCell ref="H63:K66"/>
-    <mergeCell ref="L63:O66"/>
-    <mergeCell ref="L51:O54"/>
-    <mergeCell ref="D55:G58"/>
-    <mergeCell ref="H55:K58"/>
-    <mergeCell ref="L55:O58"/>
-    <mergeCell ref="D51:G54"/>
-    <mergeCell ref="H51:K54"/>
-    <mergeCell ref="Q3:U5"/>
-    <mergeCell ref="Q6:U21"/>
-    <mergeCell ref="H59:K62"/>
-    <mergeCell ref="L59:O62"/>
-    <mergeCell ref="B7:C10"/>
-    <mergeCell ref="B59:C62"/>
-    <mergeCell ref="B55:C58"/>
-    <mergeCell ref="D43:G46"/>
-    <mergeCell ref="H43:K46"/>
-    <mergeCell ref="L43:O46"/>
-    <mergeCell ref="D47:G50"/>
-    <mergeCell ref="H47:K50"/>
-    <mergeCell ref="L47:O50"/>
-    <mergeCell ref="D39:G42"/>
-    <mergeCell ref="H39:K42"/>
-    <mergeCell ref="L39:O42"/>
+    <mergeCell ref="H15:K18"/>
+    <mergeCell ref="L15:O18"/>
+    <mergeCell ref="D19:G22"/>
+    <mergeCell ref="H19:K22"/>
+    <mergeCell ref="L19:O22"/>
+    <mergeCell ref="D11:G14"/>
+    <mergeCell ref="H11:K14"/>
+    <mergeCell ref="L11:O14"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D7:G10"/>
+    <mergeCell ref="H7:K10"/>
+    <mergeCell ref="L7:O10"/>
+    <mergeCell ref="B43:C46"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="B31:C34"/>
+    <mergeCell ref="B35:C38"/>
+    <mergeCell ref="B39:C42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/작업일지.xlsx
+++ b/Assets/작업일지.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KITRI\Desktop\Git\KitriUnityProject\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KITRI\Documents\GITHUB_PROJECT\KitriUnityProject\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>작업 일지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,19 +111,6 @@
   </si>
   <si>
     <t>버추얼 패드 버튼 활성화, 아이템 던지기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 던진거 다시 잡기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애니메이션 정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 피격 판정,
-AI 설계 시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -927,7 +914,7 @@
   <dimension ref="B2:U66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19:O22"/>
+      <selection activeCell="D15" sqref="D15:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1216,9 +1203,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="L15" s="16"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="25"/>
@@ -1296,9 +1281,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="D19" s="16"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="18"/>
@@ -1306,9 +1289,7 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="L19" s="16"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
       <c r="O19" s="25"/>

--- a/Assets/작업일지.xlsx
+++ b/Assets/작업일지.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>작업 일지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,14 @@
   </si>
   <si>
     <t>버추얼 패드 버튼 활성화, 아이템 던지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 던진거 다시 줍기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 던지기(완료), 다시 줍기(완료)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,6 +419,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,6 +522,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -456,51 +590,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,91 +602,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -913,204 +921,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:G18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
-      <c r="Q3" s="52" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="Q3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="54"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="3"/>
     </row>
     <row r="4" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="42"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="35"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="45"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="42"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="58"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="9"/>
     </row>
     <row r="6" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="26"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="12"/>
     </row>
     <row r="7" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="28" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="28" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="35"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="26"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="12"/>
     </row>
     <row r="8" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="55"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="35"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="26"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="12"/>
     </row>
     <row r="9" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="55"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="35"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="26"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="12"/>
     </row>
     <row r="10" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="62"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="36"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="62"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -1118,81 +1126,81 @@
       <c r="L11" s="16"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="25"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="26"/>
+      <c r="O11" s="24"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="12"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="26"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="26"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="12"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="26"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="26"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="12"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="12"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="27"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="26"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="25"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="12"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1206,82 +1214,84 @@
       <c r="L15" s="16"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="25"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="26"/>
+      <c r="O15" s="24"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="12"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="20"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="26"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="26"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="12"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="20"/>
       <c r="L17" s="19"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="26"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="26"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="12"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="12"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="27"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="26"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="25"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="12"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="18"/>
@@ -1292,77 +1302,79 @@
       <c r="L19" s="16"/>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="25"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="26"/>
+      <c r="O19" s="24"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="12"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="26"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="26"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="12"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="12"/>
     </row>
     <row r="21" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="20"/>
       <c r="L21" s="19"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="26"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="51"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="12"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="15"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="27"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="25"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="16"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="18"/>
@@ -1373,61 +1385,61 @@
       <c r="L23" s="16"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="25"/>
+      <c r="O23" s="24"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="26"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="12"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="20"/>
       <c r="L25" s="19"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="26"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="12"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="27"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="25"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -1439,61 +1451,61 @@
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="25"/>
+      <c r="O27" s="24"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="21"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="19"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="26"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="12"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="21"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="20"/>
       <c r="L29" s="19"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="26"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="12"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="27"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="25"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -1505,61 +1517,61 @@
       <c r="L31" s="16"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
-      <c r="O31" s="25"/>
+      <c r="O31" s="24"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="20"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="20"/>
       <c r="L32" s="19"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="26"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="12"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="20"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="20"/>
       <c r="L33" s="19"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="26"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="12"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="27"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="25"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -1571,61 +1583,61 @@
       <c r="L35" s="16"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="25"/>
+      <c r="O35" s="24"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="20"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="21"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="20"/>
       <c r="L36" s="19"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="26"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="12"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="20"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="21"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="20"/>
       <c r="L37" s="19"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="26"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="12"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="27"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="25"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="16"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -1637,61 +1649,61 @@
       <c r="L39" s="16"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
-      <c r="O39" s="25"/>
+      <c r="O39" s="24"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="20"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="21"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="20"/>
       <c r="L40" s="19"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="26"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="12"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="20"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="21"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="20"/>
       <c r="L41" s="19"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="26"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="12"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="27"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="25"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="16"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
@@ -1703,61 +1715,61 @@
       <c r="L43" s="16"/>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
-      <c r="O43" s="25"/>
+      <c r="O43" s="24"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="21"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="20"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="21"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="20"/>
       <c r="L44" s="19"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="26"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="12"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="20"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="21"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="20"/>
       <c r="L45" s="19"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="26"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="12"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="27"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="25"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="16"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
@@ -1769,61 +1781,61 @@
       <c r="L47" s="16"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
-      <c r="O47" s="25"/>
+      <c r="O47" s="24"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="33"/>
       <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="20"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="21"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="20"/>
       <c r="L48" s="19"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="26"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="12"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="20"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="21"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="20"/>
       <c r="L49" s="19"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="26"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="12"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="27"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="25"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="31"/>
       <c r="D51" s="16"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -1835,61 +1847,61 @@
       <c r="L51" s="16"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
-      <c r="O51" s="25"/>
+      <c r="O51" s="24"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="21"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="20"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="21"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="20"/>
       <c r="L52" s="19"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="26"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="12"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
       <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="20"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="21"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="20"/>
       <c r="L53" s="19"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="26"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="12"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="27"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="25"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="16"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -1901,61 +1913,61 @@
       <c r="L55" s="16"/>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
-      <c r="O55" s="25"/>
+      <c r="O55" s="24"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="33"/>
       <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="21"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="20"/>
       <c r="H56" s="19"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="21"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="20"/>
       <c r="L56" s="19"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="26"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="12"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="33"/>
       <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="21"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="20"/>
       <c r="H57" s="19"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="21"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="20"/>
       <c r="L57" s="19"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="26"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="12"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="27"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="25"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="16"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
@@ -1967,61 +1979,61 @@
       <c r="L59" s="16"/>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
-      <c r="O59" s="25"/>
+      <c r="O59" s="24"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="3"/>
-      <c r="C60" s="4"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="33"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="21"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="20"/>
       <c r="H60" s="19"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="21"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="20"/>
       <c r="L60" s="19"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="26"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="12"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="19"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="21"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="20"/>
       <c r="H61" s="19"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="21"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="20"/>
       <c r="L61" s="19"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="26"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="12"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="27"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="25"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="16"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
@@ -2033,58 +2045,105 @@
       <c r="L63" s="16"/>
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
-      <c r="O63" s="25"/>
+      <c r="O63" s="24"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B64" s="3"/>
-      <c r="C64" s="4"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="33"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="21"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="20"/>
       <c r="H64" s="19"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="21"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="20"/>
       <c r="L64" s="19"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="26"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="12"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B65" s="3"/>
-      <c r="C65" s="4"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="33"/>
       <c r="D65" s="19"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="21"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="20"/>
       <c r="H65" s="19"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="21"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="20"/>
       <c r="L65" s="19"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="26"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="12"/>
     </row>
     <row r="66" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="46"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="50"/>
-      <c r="L66" s="48"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="51"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="B43:C46"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="B31:C34"/>
+    <mergeCell ref="B35:C38"/>
+    <mergeCell ref="B39:C42"/>
+    <mergeCell ref="D11:G14"/>
+    <mergeCell ref="H11:K14"/>
+    <mergeCell ref="L11:O14"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D7:G10"/>
+    <mergeCell ref="H7:K10"/>
+    <mergeCell ref="L7:O10"/>
+    <mergeCell ref="H15:K18"/>
+    <mergeCell ref="L15:O18"/>
+    <mergeCell ref="D19:G22"/>
+    <mergeCell ref="H19:K22"/>
+    <mergeCell ref="L19:O22"/>
+    <mergeCell ref="B47:C50"/>
+    <mergeCell ref="B51:C54"/>
+    <mergeCell ref="B3:O6"/>
+    <mergeCell ref="D31:G34"/>
+    <mergeCell ref="H31:K34"/>
+    <mergeCell ref="L31:O34"/>
+    <mergeCell ref="D35:G38"/>
+    <mergeCell ref="H35:K38"/>
+    <mergeCell ref="L35:O38"/>
+    <mergeCell ref="D23:G26"/>
+    <mergeCell ref="H23:K26"/>
+    <mergeCell ref="L23:O26"/>
+    <mergeCell ref="D27:G30"/>
+    <mergeCell ref="H27:K30"/>
+    <mergeCell ref="L27:O30"/>
+    <mergeCell ref="D15:G18"/>
+    <mergeCell ref="B63:C66"/>
+    <mergeCell ref="D59:G62"/>
+    <mergeCell ref="D63:G66"/>
+    <mergeCell ref="H63:K66"/>
+    <mergeCell ref="L63:O66"/>
+    <mergeCell ref="L51:O54"/>
+    <mergeCell ref="D55:G58"/>
+    <mergeCell ref="H55:K58"/>
+    <mergeCell ref="L55:O58"/>
+    <mergeCell ref="D51:G54"/>
+    <mergeCell ref="H51:K54"/>
     <mergeCell ref="Q3:U5"/>
     <mergeCell ref="Q6:U21"/>
     <mergeCell ref="H59:K62"/>
@@ -2101,53 +2160,6 @@
     <mergeCell ref="D39:G42"/>
     <mergeCell ref="H39:K42"/>
     <mergeCell ref="L39:O42"/>
-    <mergeCell ref="L51:O54"/>
-    <mergeCell ref="D55:G58"/>
-    <mergeCell ref="H55:K58"/>
-    <mergeCell ref="L55:O58"/>
-    <mergeCell ref="D51:G54"/>
-    <mergeCell ref="H51:K54"/>
-    <mergeCell ref="B63:C66"/>
-    <mergeCell ref="D59:G62"/>
-    <mergeCell ref="D63:G66"/>
-    <mergeCell ref="H63:K66"/>
-    <mergeCell ref="L63:O66"/>
-    <mergeCell ref="B47:C50"/>
-    <mergeCell ref="B51:C54"/>
-    <mergeCell ref="B3:O6"/>
-    <mergeCell ref="D31:G34"/>
-    <mergeCell ref="H31:K34"/>
-    <mergeCell ref="L31:O34"/>
-    <mergeCell ref="D35:G38"/>
-    <mergeCell ref="H35:K38"/>
-    <mergeCell ref="L35:O38"/>
-    <mergeCell ref="D23:G26"/>
-    <mergeCell ref="H23:K26"/>
-    <mergeCell ref="L23:O26"/>
-    <mergeCell ref="D27:G30"/>
-    <mergeCell ref="H27:K30"/>
-    <mergeCell ref="L27:O30"/>
-    <mergeCell ref="D15:G18"/>
-    <mergeCell ref="H15:K18"/>
-    <mergeCell ref="L15:O18"/>
-    <mergeCell ref="D19:G22"/>
-    <mergeCell ref="H19:K22"/>
-    <mergeCell ref="L19:O22"/>
-    <mergeCell ref="D11:G14"/>
-    <mergeCell ref="H11:K14"/>
-    <mergeCell ref="L11:O14"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D7:G10"/>
-    <mergeCell ref="H7:K10"/>
-    <mergeCell ref="L7:O10"/>
-    <mergeCell ref="B43:C46"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="B31:C34"/>
-    <mergeCell ref="B35:C38"/>
-    <mergeCell ref="B39:C42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/작업일지.xlsx
+++ b/Assets/작업일지.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KITRI\Documents\GITHUB_PROJECT\KitriUnityProject\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KITRI\Desktop\Git\KitriUnityProject\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>작업 일지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,22 @@
   </si>
   <si>
     <t>아이템 던지기(완료), 다시 줍기(완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 피격 판정
+AI 설계 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy 구조 변경
+EnemyManager
+State 추가
+AnimatorController2 (임시)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,6 +435,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,12 +598,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -449,160 +612,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -921,204 +937,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:G26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="Q3" s="1" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
+      <c r="Q3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="3"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="54"/>
     </row>
     <row r="4" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="6"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="42"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="35"/>
     </row>
     <row r="5" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="9"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="42"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="58"/>
     </row>
     <row r="6" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="12"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="45"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="26"/>
     </row>
     <row r="7" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="58" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="58" t="s">
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="58" t="s">
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="12"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="35"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="26"/>
     </row>
     <row r="8" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="12"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="35"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="26"/>
     </row>
     <row r="9" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="12"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="35"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="26"/>
     </row>
     <row r="10" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="62"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="12"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="36"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="26"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="49" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -1126,81 +1142,81 @@
       <c r="L11" s="16"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="24"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="12"/>
+      <c r="O11" s="25"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="26"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="19"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="12"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="26"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="26"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="19"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="12"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="12"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="26"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="26"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="25"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="12"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="27"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="26"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1211,84 +1227,86 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="16"/>
+      <c r="L15" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="24"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="12"/>
+      <c r="O15" s="25"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="26"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="21"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="12"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="26"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="26"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="19"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="12"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="12"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="26"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="26"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="25"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="12"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="27"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="26"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="16" t="s">
         <v>22</v>
       </c>
@@ -1299,79 +1317,81 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="16"/>
+      <c r="L19" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="24"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="12"/>
+      <c r="O19" s="25"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="26"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="12"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="12"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="26"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="26"/>
     </row>
     <row r="21" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="21"/>
       <c r="L21" s="19"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="12"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="15"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="26"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="51"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="25"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="27"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="16" t="s">
         <v>23</v>
       </c>
@@ -1382,64 +1402,66 @@
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="16"/>
+      <c r="L23" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="24"/>
+      <c r="O23" s="25"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="12"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="26"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
       <c r="L25" s="19"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="12"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="26"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="25"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="27"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="31"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -1451,61 +1473,61 @@
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="24"/>
+      <c r="O27" s="25"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="21"/>
       <c r="L28" s="19"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="12"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="26"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="21"/>
       <c r="L29" s="19"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="12"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="26"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="25"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="27"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -1517,61 +1539,61 @@
       <c r="L31" s="16"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
-      <c r="O31" s="24"/>
+      <c r="O31" s="25"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="21"/>
       <c r="L32" s="19"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="12"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="26"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="21"/>
       <c r="L33" s="19"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="12"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="26"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="25"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="27"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="31"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -1583,61 +1605,61 @@
       <c r="L35" s="16"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="24"/>
+      <c r="O35" s="25"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="21"/>
       <c r="L36" s="19"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="12"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="26"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="32"/>
-      <c r="C37" s="33"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="21"/>
       <c r="L37" s="19"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="12"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="26"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="25"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="27"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="31"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="16"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -1649,61 +1671,61 @@
       <c r="L39" s="16"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
-      <c r="O39" s="24"/>
+      <c r="O39" s="25"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="21"/>
       <c r="L40" s="19"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="12"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="26"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="21"/>
       <c r="L41" s="19"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="12"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="26"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="34"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="25"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="27"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="31"/>
+      <c r="C43" s="2"/>
       <c r="D43" s="16"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
@@ -1715,61 +1737,61 @@
       <c r="L43" s="16"/>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
-      <c r="O43" s="24"/>
+      <c r="O43" s="25"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="19"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="21"/>
       <c r="L44" s="19"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="12"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="26"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="32"/>
-      <c r="C45" s="33"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="19"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="21"/>
       <c r="L45" s="19"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="12"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="26"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="34"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="25"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="27"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="31"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="16"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
@@ -1781,61 +1803,61 @@
       <c r="L47" s="16"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
-      <c r="O47" s="24"/>
+      <c r="O47" s="25"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="32"/>
-      <c r="C48" s="33"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="19"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="21"/>
       <c r="L48" s="19"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="12"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="26"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="32"/>
-      <c r="C49" s="33"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="19"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="21"/>
       <c r="L49" s="19"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="12"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="26"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="34"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="25"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="27"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="31"/>
+      <c r="C51" s="2"/>
       <c r="D51" s="16"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -1847,61 +1869,61 @@
       <c r="L51" s="16"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
-      <c r="O51" s="24"/>
+      <c r="O51" s="25"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="32"/>
-      <c r="C52" s="33"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="19"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="21"/>
       <c r="L52" s="19"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="12"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="26"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="32"/>
-      <c r="C53" s="33"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="19"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="21"/>
       <c r="L53" s="19"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="12"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="26"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B54" s="34"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="25"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="27"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="31"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="16"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -1913,61 +1935,61 @@
       <c r="L55" s="16"/>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
-      <c r="O55" s="24"/>
+      <c r="O55" s="25"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="32"/>
-      <c r="C56" s="33"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="19"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="21"/>
       <c r="H56" s="19"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="21"/>
       <c r="L56" s="19"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="12"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="26"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B57" s="32"/>
-      <c r="C57" s="33"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
       <c r="D57" s="19"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="21"/>
       <c r="H57" s="19"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="21"/>
       <c r="L57" s="19"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="12"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="26"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="34"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="25"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="27"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="31"/>
+      <c r="C59" s="2"/>
       <c r="D59" s="16"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
@@ -1979,61 +2001,61 @@
       <c r="L59" s="16"/>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
-      <c r="O59" s="24"/>
+      <c r="O59" s="25"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="32"/>
-      <c r="C60" s="33"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
       <c r="H60" s="19"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="21"/>
       <c r="L60" s="19"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="12"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="26"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B61" s="32"/>
-      <c r="C61" s="33"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="19"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21"/>
       <c r="H61" s="19"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="21"/>
       <c r="L61" s="19"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="12"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="26"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B62" s="34"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="25"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="27"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="31"/>
+      <c r="C63" s="2"/>
       <c r="D63" s="16"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
@@ -2045,78 +2067,85 @@
       <c r="L63" s="16"/>
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
-      <c r="O63" s="24"/>
+      <c r="O63" s="25"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B64" s="32"/>
-      <c r="C64" s="33"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="21"/>
       <c r="H64" s="19"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="21"/>
       <c r="L64" s="19"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="12"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="26"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B65" s="32"/>
-      <c r="C65" s="33"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
       <c r="D65" s="19"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="21"/>
       <c r="H65" s="19"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="21"/>
       <c r="L65" s="19"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="12"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="26"/>
     </row>
     <row r="66" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="36"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="15"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B43:C46"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="B31:C34"/>
-    <mergeCell ref="B35:C38"/>
-    <mergeCell ref="B39:C42"/>
-    <mergeCell ref="D11:G14"/>
-    <mergeCell ref="H11:K14"/>
-    <mergeCell ref="L11:O14"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D7:G10"/>
-    <mergeCell ref="H7:K10"/>
-    <mergeCell ref="L7:O10"/>
-    <mergeCell ref="H15:K18"/>
-    <mergeCell ref="L15:O18"/>
-    <mergeCell ref="D19:G22"/>
-    <mergeCell ref="H19:K22"/>
-    <mergeCell ref="L19:O22"/>
+    <mergeCell ref="Q3:U5"/>
+    <mergeCell ref="Q6:U21"/>
+    <mergeCell ref="H59:K62"/>
+    <mergeCell ref="L59:O62"/>
+    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="B59:C62"/>
+    <mergeCell ref="B55:C58"/>
+    <mergeCell ref="D43:G46"/>
+    <mergeCell ref="H43:K46"/>
+    <mergeCell ref="L43:O46"/>
+    <mergeCell ref="D47:G50"/>
+    <mergeCell ref="H47:K50"/>
+    <mergeCell ref="L47:O50"/>
+    <mergeCell ref="D39:G42"/>
+    <mergeCell ref="H39:K42"/>
+    <mergeCell ref="L39:O42"/>
+    <mergeCell ref="L51:O54"/>
+    <mergeCell ref="D55:G58"/>
+    <mergeCell ref="H55:K58"/>
+    <mergeCell ref="L55:O58"/>
+    <mergeCell ref="D51:G54"/>
+    <mergeCell ref="H51:K54"/>
+    <mergeCell ref="B63:C66"/>
+    <mergeCell ref="D59:G62"/>
+    <mergeCell ref="D63:G66"/>
+    <mergeCell ref="H63:K66"/>
+    <mergeCell ref="L63:O66"/>
     <mergeCell ref="B47:C50"/>
     <mergeCell ref="B51:C54"/>
     <mergeCell ref="B3:O6"/>
@@ -2133,33 +2162,26 @@
     <mergeCell ref="H27:K30"/>
     <mergeCell ref="L27:O30"/>
     <mergeCell ref="D15:G18"/>
-    <mergeCell ref="B63:C66"/>
-    <mergeCell ref="D59:G62"/>
-    <mergeCell ref="D63:G66"/>
-    <mergeCell ref="H63:K66"/>
-    <mergeCell ref="L63:O66"/>
-    <mergeCell ref="L51:O54"/>
-    <mergeCell ref="D55:G58"/>
-    <mergeCell ref="H55:K58"/>
-    <mergeCell ref="L55:O58"/>
-    <mergeCell ref="D51:G54"/>
-    <mergeCell ref="H51:K54"/>
-    <mergeCell ref="Q3:U5"/>
-    <mergeCell ref="Q6:U21"/>
-    <mergeCell ref="H59:K62"/>
-    <mergeCell ref="L59:O62"/>
-    <mergeCell ref="B7:C10"/>
-    <mergeCell ref="B59:C62"/>
-    <mergeCell ref="B55:C58"/>
-    <mergeCell ref="D43:G46"/>
-    <mergeCell ref="H43:K46"/>
-    <mergeCell ref="L43:O46"/>
-    <mergeCell ref="D47:G50"/>
-    <mergeCell ref="H47:K50"/>
-    <mergeCell ref="L47:O50"/>
-    <mergeCell ref="D39:G42"/>
-    <mergeCell ref="H39:K42"/>
-    <mergeCell ref="L39:O42"/>
+    <mergeCell ref="H15:K18"/>
+    <mergeCell ref="L15:O18"/>
+    <mergeCell ref="D19:G22"/>
+    <mergeCell ref="H19:K22"/>
+    <mergeCell ref="L19:O22"/>
+    <mergeCell ref="D11:G14"/>
+    <mergeCell ref="H11:K14"/>
+    <mergeCell ref="L11:O14"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D7:G10"/>
+    <mergeCell ref="H7:K10"/>
+    <mergeCell ref="L7:O10"/>
+    <mergeCell ref="B43:C46"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="B31:C34"/>
+    <mergeCell ref="B35:C38"/>
+    <mergeCell ref="B39:C42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/작업일지.xlsx
+++ b/Assets/작업일지.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KITRI\Desktop\Git\KitriUnityProject\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KITRI\Documents\GITHUB_PROJECT\KitriUnityProject\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>작업 일지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,14 @@
 EnemyManager
 State 추가
 AnimatorController2 (임시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 제너레이터(완료),오브젝트 풀(완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 제너레이터 버그 수정 중…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,6 +443,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,6 +546,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -480,51 +614,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,91 +626,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -937,7 +945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H23" sqref="H23:K26"/>
     </sheetView>
   </sheetViews>
@@ -945,196 +953,196 @@
   <sheetData>
     <row r="2" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
-      <c r="Q3" s="52" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="Q3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="54"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="3"/>
     </row>
     <row r="4" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="42"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="35"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="45"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="42"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="58"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="9"/>
     </row>
     <row r="6" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="26"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="12"/>
     </row>
     <row r="7" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="28" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="28" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="35"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="26"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="12"/>
     </row>
     <row r="8" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="55"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="35"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="26"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="12"/>
     </row>
     <row r="9" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="55"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="35"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="26"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="12"/>
     </row>
     <row r="10" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="62"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="36"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="62"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -1142,81 +1150,81 @@
       <c r="L11" s="16"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="25"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="26"/>
+      <c r="O11" s="24"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="12"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="26"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="26"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="12"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="26"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="26"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="12"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="12"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="27"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="26"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="25"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="12"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1232,81 +1240,81 @@
       </c>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="25"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="26"/>
+      <c r="O15" s="24"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="12"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="20"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="26"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="26"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="12"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="20"/>
       <c r="L17" s="19"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="26"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="26"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="12"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="12"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="27"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="26"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="25"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="12"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="16" t="s">
         <v>22</v>
       </c>
@@ -1317,81 +1325,81 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="49" t="s">
         <v>25</v>
       </c>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="25"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="26"/>
+      <c r="O19" s="24"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="12"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="26"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="26"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="12"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="12"/>
     </row>
     <row r="21" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="20"/>
       <c r="L21" s="19"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="26"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="51"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="12"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="15"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="27"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="25"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="16" t="s">
         <v>23</v>
       </c>
@@ -1402,67 +1410,69 @@
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="49" t="s">
         <v>26</v>
       </c>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="25"/>
+      <c r="O23" s="24"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="26"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="12"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="20"/>
       <c r="L25" s="19"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="26"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="12"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="27"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="25"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="16"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="18"/>
@@ -1473,62 +1483,64 @@
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="25"/>
+      <c r="O27" s="24"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="21"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="19"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="26"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="12"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="21"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="20"/>
       <c r="L29" s="19"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="26"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="12"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="27"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="25"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="16"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="18"/>
@@ -1539,61 +1551,61 @@
       <c r="L31" s="16"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
-      <c r="O31" s="25"/>
+      <c r="O31" s="24"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="20"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="20"/>
       <c r="L32" s="19"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="26"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="12"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="20"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="20"/>
       <c r="L33" s="19"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="26"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="12"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="27"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="25"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -1605,61 +1617,61 @@
       <c r="L35" s="16"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="25"/>
+      <c r="O35" s="24"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="20"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="21"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="20"/>
       <c r="L36" s="19"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="26"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="12"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="20"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="21"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="20"/>
       <c r="L37" s="19"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="26"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="12"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="27"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="25"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="16"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -1671,61 +1683,61 @@
       <c r="L39" s="16"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
-      <c r="O39" s="25"/>
+      <c r="O39" s="24"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="20"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="21"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="20"/>
       <c r="L40" s="19"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="26"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="12"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="20"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="21"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="20"/>
       <c r="L41" s="19"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="26"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="12"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="27"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="25"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="16"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
@@ -1737,61 +1749,61 @@
       <c r="L43" s="16"/>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
-      <c r="O43" s="25"/>
+      <c r="O43" s="24"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="21"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="20"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="21"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="20"/>
       <c r="L44" s="19"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="26"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="12"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="20"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="21"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="20"/>
       <c r="L45" s="19"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="26"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="12"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="27"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="25"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="16"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
@@ -1803,61 +1815,61 @@
       <c r="L47" s="16"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
-      <c r="O47" s="25"/>
+      <c r="O47" s="24"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="33"/>
       <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="20"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="21"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="20"/>
       <c r="L48" s="19"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="26"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="12"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="20"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="21"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="20"/>
       <c r="L49" s="19"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="26"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="12"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="27"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="25"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="31"/>
       <c r="D51" s="16"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -1869,61 +1881,61 @@
       <c r="L51" s="16"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
-      <c r="O51" s="25"/>
+      <c r="O51" s="24"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="21"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="20"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="21"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="20"/>
       <c r="L52" s="19"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="26"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="12"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
       <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="20"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="21"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="20"/>
       <c r="L53" s="19"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="26"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="12"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="27"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="25"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="16"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -1935,61 +1947,61 @@
       <c r="L55" s="16"/>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
-      <c r="O55" s="25"/>
+      <c r="O55" s="24"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="33"/>
       <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="21"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="20"/>
       <c r="H56" s="19"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="21"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="20"/>
       <c r="L56" s="19"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="26"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="12"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="33"/>
       <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="21"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="20"/>
       <c r="H57" s="19"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="21"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="20"/>
       <c r="L57" s="19"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="26"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="12"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="27"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="25"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="16"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
@@ -2001,61 +2013,61 @@
       <c r="L59" s="16"/>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
-      <c r="O59" s="25"/>
+      <c r="O59" s="24"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="3"/>
-      <c r="C60" s="4"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="33"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="21"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="20"/>
       <c r="H60" s="19"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="21"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="20"/>
       <c r="L60" s="19"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="26"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="12"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="19"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="21"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="20"/>
       <c r="H61" s="19"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="21"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="20"/>
       <c r="L61" s="19"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="26"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="12"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="27"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="25"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="16"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
@@ -2067,58 +2079,105 @@
       <c r="L63" s="16"/>
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
-      <c r="O63" s="25"/>
+      <c r="O63" s="24"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B64" s="3"/>
-      <c r="C64" s="4"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="33"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="21"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="20"/>
       <c r="H64" s="19"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="21"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="20"/>
       <c r="L64" s="19"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="26"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="12"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B65" s="3"/>
-      <c r="C65" s="4"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="33"/>
       <c r="D65" s="19"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="21"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="20"/>
       <c r="H65" s="19"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="21"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="20"/>
       <c r="L65" s="19"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="26"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="12"/>
     </row>
     <row r="66" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="46"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="50"/>
-      <c r="L66" s="48"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="51"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="B43:C46"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="B31:C34"/>
+    <mergeCell ref="B35:C38"/>
+    <mergeCell ref="B39:C42"/>
+    <mergeCell ref="D11:G14"/>
+    <mergeCell ref="H11:K14"/>
+    <mergeCell ref="L11:O14"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D7:G10"/>
+    <mergeCell ref="H7:K10"/>
+    <mergeCell ref="L7:O10"/>
+    <mergeCell ref="H15:K18"/>
+    <mergeCell ref="L15:O18"/>
+    <mergeCell ref="D19:G22"/>
+    <mergeCell ref="H19:K22"/>
+    <mergeCell ref="L19:O22"/>
+    <mergeCell ref="B47:C50"/>
+    <mergeCell ref="B51:C54"/>
+    <mergeCell ref="B3:O6"/>
+    <mergeCell ref="D31:G34"/>
+    <mergeCell ref="H31:K34"/>
+    <mergeCell ref="L31:O34"/>
+    <mergeCell ref="D35:G38"/>
+    <mergeCell ref="H35:K38"/>
+    <mergeCell ref="L35:O38"/>
+    <mergeCell ref="D23:G26"/>
+    <mergeCell ref="H23:K26"/>
+    <mergeCell ref="L23:O26"/>
+    <mergeCell ref="D27:G30"/>
+    <mergeCell ref="H27:K30"/>
+    <mergeCell ref="L27:O30"/>
+    <mergeCell ref="D15:G18"/>
+    <mergeCell ref="B63:C66"/>
+    <mergeCell ref="D59:G62"/>
+    <mergeCell ref="D63:G66"/>
+    <mergeCell ref="H63:K66"/>
+    <mergeCell ref="L63:O66"/>
+    <mergeCell ref="L51:O54"/>
+    <mergeCell ref="D55:G58"/>
+    <mergeCell ref="H55:K58"/>
+    <mergeCell ref="L55:O58"/>
+    <mergeCell ref="D51:G54"/>
+    <mergeCell ref="H51:K54"/>
     <mergeCell ref="Q3:U5"/>
     <mergeCell ref="Q6:U21"/>
     <mergeCell ref="H59:K62"/>
@@ -2135,53 +2194,6 @@
     <mergeCell ref="D39:G42"/>
     <mergeCell ref="H39:K42"/>
     <mergeCell ref="L39:O42"/>
-    <mergeCell ref="L51:O54"/>
-    <mergeCell ref="D55:G58"/>
-    <mergeCell ref="H55:K58"/>
-    <mergeCell ref="L55:O58"/>
-    <mergeCell ref="D51:G54"/>
-    <mergeCell ref="H51:K54"/>
-    <mergeCell ref="B63:C66"/>
-    <mergeCell ref="D59:G62"/>
-    <mergeCell ref="D63:G66"/>
-    <mergeCell ref="H63:K66"/>
-    <mergeCell ref="L63:O66"/>
-    <mergeCell ref="B47:C50"/>
-    <mergeCell ref="B51:C54"/>
-    <mergeCell ref="B3:O6"/>
-    <mergeCell ref="D31:G34"/>
-    <mergeCell ref="H31:K34"/>
-    <mergeCell ref="L31:O34"/>
-    <mergeCell ref="D35:G38"/>
-    <mergeCell ref="H35:K38"/>
-    <mergeCell ref="L35:O38"/>
-    <mergeCell ref="D23:G26"/>
-    <mergeCell ref="H23:K26"/>
-    <mergeCell ref="L23:O26"/>
-    <mergeCell ref="D27:G30"/>
-    <mergeCell ref="H27:K30"/>
-    <mergeCell ref="L27:O30"/>
-    <mergeCell ref="D15:G18"/>
-    <mergeCell ref="H15:K18"/>
-    <mergeCell ref="L15:O18"/>
-    <mergeCell ref="D19:G22"/>
-    <mergeCell ref="H19:K22"/>
-    <mergeCell ref="L19:O22"/>
-    <mergeCell ref="D11:G14"/>
-    <mergeCell ref="H11:K14"/>
-    <mergeCell ref="L11:O14"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D7:G10"/>
-    <mergeCell ref="H7:K10"/>
-    <mergeCell ref="L7:O10"/>
-    <mergeCell ref="B43:C46"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="B31:C34"/>
-    <mergeCell ref="B35:C38"/>
-    <mergeCell ref="B39:C42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/작업일지.xlsx
+++ b/Assets/작업일지.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>작업 일지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,14 @@
   </si>
   <si>
     <t>아이템 제너레이터 버그 수정 중…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 버튼 연결(완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy HP bar (완료)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,6 +451,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,12 +614,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -473,160 +628,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -945,204 +953,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:K26"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="Q3" s="1" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
+      <c r="Q3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="3"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="54"/>
     </row>
     <row r="4" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="6"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="42"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="35"/>
     </row>
     <row r="5" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="9"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="42"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="58"/>
     </row>
     <row r="6" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="12"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="45"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="26"/>
     </row>
     <row r="7" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="58" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="58" t="s">
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="58" t="s">
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="12"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="35"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="26"/>
     </row>
     <row r="8" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="12"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="35"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="26"/>
     </row>
     <row r="9" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="12"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="35"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="26"/>
     </row>
     <row r="10" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="62"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="12"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="36"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="26"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="49" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -1150,81 +1158,81 @@
       <c r="L11" s="16"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="24"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="12"/>
+      <c r="O11" s="25"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="26"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="19"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="12"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="26"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="26"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="19"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="12"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="12"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="26"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="26"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="25"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="12"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="27"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="26"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="31"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1240,81 +1248,81 @@
       </c>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="24"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="12"/>
+      <c r="O15" s="25"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="26"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="21"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="12"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="26"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="26"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="19"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="12"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="12"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="26"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="26"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="25"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="12"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="27"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="26"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="16" t="s">
         <v>22</v>
       </c>
@@ -1325,81 +1333,81 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="49" t="s">
+      <c r="L19" s="7" t="s">
         <v>25</v>
       </c>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="24"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="12"/>
+      <c r="O19" s="25"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="26"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="12"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="12"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="26"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="26"/>
     </row>
     <row r="21" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="21"/>
       <c r="L21" s="19"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="12"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="15"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="26"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="51"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="34"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="25"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="27"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="16" t="s">
         <v>23</v>
       </c>
@@ -1410,66 +1418,66 @@
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="49" t="s">
+      <c r="L23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="24"/>
+      <c r="O23" s="25"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="12"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="26"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
       <c r="L25" s="19"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="12"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="26"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="25"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="27"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="31"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="16" t="s">
         <v>28</v>
       </c>
@@ -1483,61 +1491,61 @@
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="24"/>
+      <c r="O27" s="25"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="21"/>
       <c r="L28" s="19"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="12"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="26"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="21"/>
       <c r="L29" s="19"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="12"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="26"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="25"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="27"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="16" t="s">
         <v>27</v>
       </c>
@@ -1551,61 +1559,61 @@
       <c r="L31" s="16"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
-      <c r="O31" s="24"/>
+      <c r="O31" s="25"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="21"/>
       <c r="L32" s="19"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="12"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="26"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="21"/>
       <c r="L33" s="19"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="12"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="26"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="25"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="27"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="31"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -1617,62 +1625,64 @@
       <c r="L35" s="16"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="24"/>
+      <c r="O35" s="25"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="21"/>
       <c r="L36" s="19"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="12"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="26"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="32"/>
-      <c r="C37" s="33"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="21"/>
       <c r="L37" s="19"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="12"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="26"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="25"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="27"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="16"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="18"/>
@@ -1683,62 +1693,64 @@
       <c r="L39" s="16"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
-      <c r="O39" s="24"/>
+      <c r="O39" s="25"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="21"/>
       <c r="L40" s="19"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="12"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="26"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="21"/>
       <c r="L41" s="19"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="12"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="26"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="34"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="25"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="27"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="16"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="18"/>
@@ -1749,61 +1761,61 @@
       <c r="L43" s="16"/>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
-      <c r="O43" s="24"/>
+      <c r="O43" s="25"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="19"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="21"/>
       <c r="L44" s="19"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="12"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="26"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="32"/>
-      <c r="C45" s="33"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="19"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="21"/>
       <c r="L45" s="19"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="12"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="26"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="34"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="25"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="27"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="31"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="16"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
@@ -1815,61 +1827,61 @@
       <c r="L47" s="16"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
-      <c r="O47" s="24"/>
+      <c r="O47" s="25"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="32"/>
-      <c r="C48" s="33"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="19"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="21"/>
       <c r="L48" s="19"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="12"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="26"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="32"/>
-      <c r="C49" s="33"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="19"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="21"/>
       <c r="L49" s="19"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="12"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="26"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="34"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="25"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="27"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="31"/>
+      <c r="C51" s="2"/>
       <c r="D51" s="16"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -1881,61 +1893,61 @@
       <c r="L51" s="16"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
-      <c r="O51" s="24"/>
+      <c r="O51" s="25"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="32"/>
-      <c r="C52" s="33"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
       <c r="D52" s="19"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="21"/>
       <c r="L52" s="19"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="12"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="26"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="32"/>
-      <c r="C53" s="33"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="19"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="21"/>
       <c r="L53" s="19"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="12"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="26"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B54" s="34"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="25"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="27"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="31"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="16"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -1947,61 +1959,61 @@
       <c r="L55" s="16"/>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
-      <c r="O55" s="24"/>
+      <c r="O55" s="25"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="32"/>
-      <c r="C56" s="33"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="19"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="21"/>
       <c r="H56" s="19"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="21"/>
       <c r="L56" s="19"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="12"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="26"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B57" s="32"/>
-      <c r="C57" s="33"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
       <c r="D57" s="19"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="21"/>
       <c r="H57" s="19"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="21"/>
       <c r="L57" s="19"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="12"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="26"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="34"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="25"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="27"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="31"/>
+      <c r="C59" s="2"/>
       <c r="D59" s="16"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
@@ -2013,61 +2025,61 @@
       <c r="L59" s="16"/>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
-      <c r="O59" s="24"/>
+      <c r="O59" s="25"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="32"/>
-      <c r="C60" s="33"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
       <c r="H60" s="19"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="21"/>
       <c r="L60" s="19"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="12"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="26"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B61" s="32"/>
-      <c r="C61" s="33"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="19"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21"/>
       <c r="H61" s="19"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="21"/>
       <c r="L61" s="19"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="12"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="26"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B62" s="34"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="25"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="27"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="31"/>
+      <c r="C63" s="2"/>
       <c r="D63" s="16"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
@@ -2079,78 +2091,85 @@
       <c r="L63" s="16"/>
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
-      <c r="O63" s="24"/>
+      <c r="O63" s="25"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B64" s="32"/>
-      <c r="C64" s="33"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="21"/>
       <c r="H64" s="19"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="21"/>
       <c r="L64" s="19"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="12"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="26"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B65" s="32"/>
-      <c r="C65" s="33"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
       <c r="D65" s="19"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="21"/>
       <c r="H65" s="19"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="21"/>
       <c r="L65" s="19"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="12"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="26"/>
     </row>
     <row r="66" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="36"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="15"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B43:C46"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="B31:C34"/>
-    <mergeCell ref="B35:C38"/>
-    <mergeCell ref="B39:C42"/>
-    <mergeCell ref="D11:G14"/>
-    <mergeCell ref="H11:K14"/>
-    <mergeCell ref="L11:O14"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D7:G10"/>
-    <mergeCell ref="H7:K10"/>
-    <mergeCell ref="L7:O10"/>
-    <mergeCell ref="H15:K18"/>
-    <mergeCell ref="L15:O18"/>
-    <mergeCell ref="D19:G22"/>
-    <mergeCell ref="H19:K22"/>
-    <mergeCell ref="L19:O22"/>
+    <mergeCell ref="Q3:U5"/>
+    <mergeCell ref="Q6:U21"/>
+    <mergeCell ref="H59:K62"/>
+    <mergeCell ref="L59:O62"/>
+    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="B59:C62"/>
+    <mergeCell ref="B55:C58"/>
+    <mergeCell ref="D43:G46"/>
+    <mergeCell ref="H43:K46"/>
+    <mergeCell ref="L43:O46"/>
+    <mergeCell ref="D47:G50"/>
+    <mergeCell ref="H47:K50"/>
+    <mergeCell ref="L47:O50"/>
+    <mergeCell ref="D39:G42"/>
+    <mergeCell ref="H39:K42"/>
+    <mergeCell ref="L39:O42"/>
+    <mergeCell ref="L51:O54"/>
+    <mergeCell ref="D55:G58"/>
+    <mergeCell ref="H55:K58"/>
+    <mergeCell ref="L55:O58"/>
+    <mergeCell ref="D51:G54"/>
+    <mergeCell ref="H51:K54"/>
+    <mergeCell ref="B63:C66"/>
+    <mergeCell ref="D59:G62"/>
+    <mergeCell ref="D63:G66"/>
+    <mergeCell ref="H63:K66"/>
+    <mergeCell ref="L63:O66"/>
     <mergeCell ref="B47:C50"/>
     <mergeCell ref="B51:C54"/>
     <mergeCell ref="B3:O6"/>
@@ -2167,33 +2186,26 @@
     <mergeCell ref="H27:K30"/>
     <mergeCell ref="L27:O30"/>
     <mergeCell ref="D15:G18"/>
-    <mergeCell ref="B63:C66"/>
-    <mergeCell ref="D59:G62"/>
-    <mergeCell ref="D63:G66"/>
-    <mergeCell ref="H63:K66"/>
-    <mergeCell ref="L63:O66"/>
-    <mergeCell ref="L51:O54"/>
-    <mergeCell ref="D55:G58"/>
-    <mergeCell ref="H55:K58"/>
-    <mergeCell ref="L55:O58"/>
-    <mergeCell ref="D51:G54"/>
-    <mergeCell ref="H51:K54"/>
-    <mergeCell ref="Q3:U5"/>
-    <mergeCell ref="Q6:U21"/>
-    <mergeCell ref="H59:K62"/>
-    <mergeCell ref="L59:O62"/>
-    <mergeCell ref="B7:C10"/>
-    <mergeCell ref="B59:C62"/>
-    <mergeCell ref="B55:C58"/>
-    <mergeCell ref="D43:G46"/>
-    <mergeCell ref="H43:K46"/>
-    <mergeCell ref="L43:O46"/>
-    <mergeCell ref="D47:G50"/>
-    <mergeCell ref="H47:K50"/>
-    <mergeCell ref="L47:O50"/>
-    <mergeCell ref="D39:G42"/>
-    <mergeCell ref="H39:K42"/>
-    <mergeCell ref="L39:O42"/>
+    <mergeCell ref="H15:K18"/>
+    <mergeCell ref="L15:O18"/>
+    <mergeCell ref="D19:G22"/>
+    <mergeCell ref="H19:K22"/>
+    <mergeCell ref="L19:O22"/>
+    <mergeCell ref="D11:G14"/>
+    <mergeCell ref="H11:K14"/>
+    <mergeCell ref="L11:O14"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D7:G10"/>
+    <mergeCell ref="H7:K10"/>
+    <mergeCell ref="L7:O10"/>
+    <mergeCell ref="B43:C46"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="B31:C34"/>
+    <mergeCell ref="B35:C38"/>
+    <mergeCell ref="B39:C42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/작업일지.xlsx
+++ b/Assets/작업일지.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>작업 일지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>Enemy HP bar (완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item XP Control(완료)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,6 +455,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -467,6 +558,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -496,51 +626,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,91 +638,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -953,204 +957,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:G46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
-      <c r="Q3" s="52" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="Q3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="54"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="3"/>
     </row>
     <row r="4" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="42"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="35"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="45"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="42"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="58"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="9"/>
     </row>
     <row r="6" spans="2:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="26"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="12"/>
     </row>
     <row r="7" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="28" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="28" t="s">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="35"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="26"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="12"/>
     </row>
     <row r="8" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="55"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="35"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="26"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="12"/>
     </row>
     <row r="9" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="55"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="35"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="26"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="12"/>
     </row>
     <row r="10" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="62"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="36"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="62"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -1158,81 +1162,81 @@
       <c r="L11" s="16"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="25"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="26"/>
+      <c r="O11" s="24"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="12"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="26"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="26"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="12"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="26"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="26"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="12"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="12"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="27"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="26"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="25"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="12"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1248,81 +1252,81 @@
       </c>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="25"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="26"/>
+      <c r="O15" s="24"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="12"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="20"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="26"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="26"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="12"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="20"/>
       <c r="L17" s="19"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="26"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="26"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="12"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="12"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="27"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="26"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="25"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="12"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="16" t="s">
         <v>22</v>
       </c>
@@ -1333,81 +1337,81 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="49" t="s">
         <v>25</v>
       </c>
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
-      <c r="O19" s="25"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="26"/>
+      <c r="O19" s="24"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="12"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="26"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="26"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="12"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="12"/>
     </row>
     <row r="21" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="20"/>
       <c r="L21" s="19"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="26"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="51"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="12"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="15"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="27"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="25"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="16" t="s">
         <v>23</v>
       </c>
@@ -1418,66 +1422,66 @@
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="49" t="s">
         <v>26</v>
       </c>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="25"/>
+      <c r="O23" s="24"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="20"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="26"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="12"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="20"/>
       <c r="L25" s="19"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="26"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="12"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="27"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="25"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="16" t="s">
         <v>28</v>
       </c>
@@ -1491,61 +1495,61 @@
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="25"/>
+      <c r="O27" s="24"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="21"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="19"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="26"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="12"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="20"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="21"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="20"/>
       <c r="L29" s="19"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="26"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="12"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="27"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="25"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="16" t="s">
         <v>27</v>
       </c>
@@ -1559,61 +1563,61 @@
       <c r="L31" s="16"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
-      <c r="O31" s="25"/>
+      <c r="O31" s="24"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="20"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="20"/>
       <c r="L32" s="19"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="26"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="12"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="21"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="20"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="20"/>
       <c r="L33" s="19"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="26"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="12"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="27"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="25"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -1625,61 +1629,61 @@
       <c r="L35" s="16"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="25"/>
+      <c r="O35" s="24"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="20"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="21"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="20"/>
       <c r="L36" s="19"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="26"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="12"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="20"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="21"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="20"/>
       <c r="L37" s="19"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="26"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="12"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="27"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="25"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="16" t="s">
         <v>29</v>
       </c>
@@ -1693,61 +1697,61 @@
       <c r="L39" s="16"/>
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
-      <c r="O39" s="25"/>
+      <c r="O39" s="24"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="20"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="21"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="20"/>
       <c r="L40" s="19"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="26"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="12"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="20"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="21"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="20"/>
       <c r="L41" s="19"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="26"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="12"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="27"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="25"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="16" t="s">
         <v>30</v>
       </c>
@@ -1761,62 +1765,64 @@
       <c r="L43" s="16"/>
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
-      <c r="O43" s="25"/>
+      <c r="O43" s="24"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="21"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="20"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="21"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="20"/>
       <c r="L44" s="19"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="26"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="12"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="20"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="21"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="20"/>
       <c r="L45" s="19"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="26"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="12"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="27"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="25"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="16"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="18"/>
@@ -1827,61 +1833,61 @@
       <c r="L47" s="16"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
-      <c r="O47" s="25"/>
+      <c r="O47" s="24"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="33"/>
       <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="20"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="21"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="20"/>
       <c r="L48" s="19"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="26"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="12"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="20"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="21"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="20"/>
       <c r="L49" s="19"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="26"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="12"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="27"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="25"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="31"/>
       <c r="D51" s="16"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -1893,61 +1899,61 @@
       <c r="L51" s="16"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
-      <c r="O51" s="25"/>
+      <c r="O51" s="24"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="21"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="20"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="21"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="20"/>
       <c r="L52" s="19"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="26"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="12"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
       <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="20"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="21"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="20"/>
       <c r="L53" s="19"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="26"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="12"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="27"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="25"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="16"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -1959,61 +1965,61 @@
       <c r="L55" s="16"/>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
-      <c r="O55" s="25"/>
+      <c r="O55" s="24"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="33"/>
       <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="21"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="20"/>
       <c r="H56" s="19"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="21"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="20"/>
       <c r="L56" s="19"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="26"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="12"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="33"/>
       <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="21"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="20"/>
       <c r="H57" s="19"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="21"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="20"/>
       <c r="L57" s="19"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="26"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="12"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="27"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="25"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="16"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
@@ -2025,61 +2031,61 @@
       <c r="L59" s="16"/>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
-      <c r="O59" s="25"/>
+      <c r="O59" s="24"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="3"/>
-      <c r="C60" s="4"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="33"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="21"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="20"/>
       <c r="H60" s="19"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="21"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="20"/>
       <c r="L60" s="19"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="26"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="12"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="19"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="21"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="20"/>
       <c r="H61" s="19"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="21"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="20"/>
       <c r="L61" s="19"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="26"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="12"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="27"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="25"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="16"/>
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
@@ -2091,58 +2097,105 @@
       <c r="L63" s="16"/>
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
-      <c r="O63" s="25"/>
+      <c r="O63" s="24"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B64" s="3"/>
-      <c r="C64" s="4"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="33"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="21"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="20"/>
       <c r="H64" s="19"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="21"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="20"/>
       <c r="L64" s="19"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="26"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="12"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B65" s="3"/>
-      <c r="C65" s="4"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="33"/>
       <c r="D65" s="19"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="21"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="20"/>
       <c r="H65" s="19"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="21"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="20"/>
       <c r="L65" s="19"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="26"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="12"/>
     </row>
     <row r="66" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="46"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="50"/>
-      <c r="L66" s="48"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="51"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="B43:C46"/>
+    <mergeCell ref="B15:C18"/>
+    <mergeCell ref="B19:C22"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="B27:C30"/>
+    <mergeCell ref="B31:C34"/>
+    <mergeCell ref="B35:C38"/>
+    <mergeCell ref="B39:C42"/>
+    <mergeCell ref="D11:G14"/>
+    <mergeCell ref="H11:K14"/>
+    <mergeCell ref="L11:O14"/>
+    <mergeCell ref="B11:C14"/>
+    <mergeCell ref="D7:G10"/>
+    <mergeCell ref="H7:K10"/>
+    <mergeCell ref="L7:O10"/>
+    <mergeCell ref="H15:K18"/>
+    <mergeCell ref="L15:O18"/>
+    <mergeCell ref="D19:G22"/>
+    <mergeCell ref="H19:K22"/>
+    <mergeCell ref="L19:O22"/>
+    <mergeCell ref="B47:C50"/>
+    <mergeCell ref="B51:C54"/>
+    <mergeCell ref="B3:O6"/>
+    <mergeCell ref="D31:G34"/>
+    <mergeCell ref="H31:K34"/>
+    <mergeCell ref="L31:O34"/>
+    <mergeCell ref="D35:G38"/>
+    <mergeCell ref="H35:K38"/>
+    <mergeCell ref="L35:O38"/>
+    <mergeCell ref="D23:G26"/>
+    <mergeCell ref="H23:K26"/>
+    <mergeCell ref="L23:O26"/>
+    <mergeCell ref="D27:G30"/>
+    <mergeCell ref="H27:K30"/>
+    <mergeCell ref="L27:O30"/>
+    <mergeCell ref="D15:G18"/>
+    <mergeCell ref="B63:C66"/>
+    <mergeCell ref="D59:G62"/>
+    <mergeCell ref="D63:G66"/>
+    <mergeCell ref="H63:K66"/>
+    <mergeCell ref="L63:O66"/>
+    <mergeCell ref="L51:O54"/>
+    <mergeCell ref="D55:G58"/>
+    <mergeCell ref="H55:K58"/>
+    <mergeCell ref="L55:O58"/>
+    <mergeCell ref="D51:G54"/>
+    <mergeCell ref="H51:K54"/>
     <mergeCell ref="Q3:U5"/>
     <mergeCell ref="Q6:U21"/>
     <mergeCell ref="H59:K62"/>
@@ -2159,53 +2212,6 @@
     <mergeCell ref="D39:G42"/>
     <mergeCell ref="H39:K42"/>
     <mergeCell ref="L39:O42"/>
-    <mergeCell ref="L51:O54"/>
-    <mergeCell ref="D55:G58"/>
-    <mergeCell ref="H55:K58"/>
-    <mergeCell ref="L55:O58"/>
-    <mergeCell ref="D51:G54"/>
-    <mergeCell ref="H51:K54"/>
-    <mergeCell ref="B63:C66"/>
-    <mergeCell ref="D59:G62"/>
-    <mergeCell ref="D63:G66"/>
-    <mergeCell ref="H63:K66"/>
-    <mergeCell ref="L63:O66"/>
-    <mergeCell ref="B47:C50"/>
-    <mergeCell ref="B51:C54"/>
-    <mergeCell ref="B3:O6"/>
-    <mergeCell ref="D31:G34"/>
-    <mergeCell ref="H31:K34"/>
-    <mergeCell ref="L31:O34"/>
-    <mergeCell ref="D35:G38"/>
-    <mergeCell ref="H35:K38"/>
-    <mergeCell ref="L35:O38"/>
-    <mergeCell ref="D23:G26"/>
-    <mergeCell ref="H23:K26"/>
-    <mergeCell ref="L23:O26"/>
-    <mergeCell ref="D27:G30"/>
-    <mergeCell ref="H27:K30"/>
-    <mergeCell ref="L27:O30"/>
-    <mergeCell ref="D15:G18"/>
-    <mergeCell ref="H15:K18"/>
-    <mergeCell ref="L15:O18"/>
-    <mergeCell ref="D19:G22"/>
-    <mergeCell ref="H19:K22"/>
-    <mergeCell ref="L19:O22"/>
-    <mergeCell ref="D11:G14"/>
-    <mergeCell ref="H11:K14"/>
-    <mergeCell ref="L11:O14"/>
-    <mergeCell ref="B11:C14"/>
-    <mergeCell ref="D7:G10"/>
-    <mergeCell ref="H7:K10"/>
-    <mergeCell ref="L7:O10"/>
-    <mergeCell ref="B43:C46"/>
-    <mergeCell ref="B15:C18"/>
-    <mergeCell ref="B19:C22"/>
-    <mergeCell ref="B23:C26"/>
-    <mergeCell ref="B27:C30"/>
-    <mergeCell ref="B31:C34"/>
-    <mergeCell ref="B35:C38"/>
-    <mergeCell ref="B39:C42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
